--- a/services/petrobras_1b/input/LEILAO 03.2020.xlsx
+++ b/services/petrobras_1b/input/LEILAO 03.2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aigm\Desktop\ALIENACAO\2020\FASE 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ma_importer\services\petrobras_1b\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1BBEC-0F05-49CB-9B0C-78F98CD8901E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70796AD-8E48-45D3-B853-9EE67BB77A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Materiais" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="366">
   <si>
     <t>NM</t>
   </si>
@@ -933,9 +933,6 @@
   </si>
   <si>
     <t xml:space="preserve">TAMPAO COM MANIPULO                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECHEIOS PARA TORRES, VASOS E REATORES                      </t>
   </si>
   <si>
     <t xml:space="preserve">TRANSFORM PEQ PORTE </t>
@@ -12247,9 +12244,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62:K142"/>
+      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12353,7 +12350,7 @@
         <v>40142105</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -12377,14 +12374,14 @@
         <v>51</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N3" s="11">
-        <f>1/COUNTIF($O:$O,O3)</f>
+        <f t="shared" ref="N3:N66" si="0">1/COUNTIF($O:$O,O3)</f>
         <v>1</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:O66" si="0">L3&amp;A3</f>
+        <f t="shared" ref="O3:O66" si="1">L3&amp;A3</f>
         <v>5110000580</v>
       </c>
     </row>
@@ -12426,14 +12423,14 @@
         <v>52</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N4" s="11">
-        <f>1/COUNTIF($O:$O,O4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5210001970</v>
       </c>
     </row>
@@ -12475,14 +12472,14 @@
         <v>52</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N5" s="11">
-        <f>1/COUNTIF($O:$O,O5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5210001972</v>
       </c>
     </row>
@@ -12524,14 +12521,14 @@
         <v>59</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N6" s="11">
-        <f>1/COUNTIF($O:$O,O6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5910005584</v>
       </c>
     </row>
@@ -12573,14 +12570,14 @@
         <v>52</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N7" s="11">
-        <f>1/COUNTIF($O:$O,O7)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5210006773</v>
       </c>
     </row>
@@ -12622,14 +12619,14 @@
         <v>52</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N8" s="11">
-        <f>1/COUNTIF($O:$O,O8)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5210006773</v>
       </c>
     </row>
@@ -12671,14 +12668,14 @@
         <v>52</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N9" s="11">
-        <f>1/COUNTIF($O:$O,O9)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5210006773</v>
       </c>
     </row>
@@ -12720,14 +12717,14 @@
         <v>53</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N10" s="11">
-        <f>1/COUNTIF($O:$O,O10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5310009228</v>
       </c>
     </row>
@@ -12745,7 +12742,7 @@
         <v>40141618</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
@@ -12769,14 +12766,14 @@
         <v>53</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N11" s="11">
-        <f>1/COUNTIF($O:$O,O11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5310010870</v>
       </c>
     </row>
@@ -12818,14 +12815,14 @@
         <v>53</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N12" s="11">
-        <f>1/COUNTIF($O:$O,O12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5310012682</v>
       </c>
     </row>
@@ -12843,7 +12840,7 @@
         <v>26121614</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -12867,14 +12864,14 @@
         <v>59</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N13" s="11">
-        <f>1/COUNTIF($O:$O,O13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5910017248</v>
       </c>
     </row>
@@ -12898,7 +12895,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -12916,14 +12913,14 @@
         <v>54</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N14" s="11">
-        <f>1/COUNTIF($O:$O,O14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5410023644</v>
       </c>
     </row>
@@ -12965,14 +12962,14 @@
         <v>49</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N15" s="11">
-        <f>1/COUNTIF($O:$O,O15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910030150</v>
       </c>
     </row>
@@ -13014,14 +13011,14 @@
         <v>49</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N16" s="11">
-        <f>1/COUNTIF($O:$O,O16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910031801</v>
       </c>
     </row>
@@ -13063,14 +13060,14 @@
         <v>49</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N17" s="11">
-        <f>1/COUNTIF($O:$O,O17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910034654</v>
       </c>
     </row>
@@ -13088,7 +13085,7 @@
         <v>30141505</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
@@ -13112,14 +13109,14 @@
         <v>55</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N18" s="11">
-        <f>1/COUNTIF($O:$O,O18)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037767</v>
       </c>
     </row>
@@ -13137,7 +13134,7 @@
         <v>30141505</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -13161,14 +13158,14 @@
         <v>55</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N19" s="11">
-        <f>1/COUNTIF($O:$O,O19)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037767</v>
       </c>
     </row>
@@ -13186,7 +13183,7 @@
         <v>30141505</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -13210,14 +13207,14 @@
         <v>55</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N20" s="11">
-        <f>1/COUNTIF($O:$O,O20)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037767</v>
       </c>
     </row>
@@ -13235,7 +13232,7 @@
         <v>30141505</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
@@ -13259,14 +13256,14 @@
         <v>55</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N21" s="11">
-        <f>1/COUNTIF($O:$O,O21)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037767</v>
       </c>
     </row>
@@ -13284,7 +13281,7 @@
         <v>30141505</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -13308,14 +13305,14 @@
         <v>55</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N22" s="11">
-        <f>1/COUNTIF($O:$O,O22)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037767</v>
       </c>
     </row>
@@ -13333,7 +13330,7 @@
         <v>30141505</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
@@ -13357,14 +13354,14 @@
         <v>55</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N23" s="11">
-        <f>1/COUNTIF($O:$O,O23)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037767</v>
       </c>
     </row>
@@ -13382,7 +13379,7 @@
         <v>30141505</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -13406,14 +13403,14 @@
         <v>55</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N24" s="11">
-        <f>1/COUNTIF($O:$O,O24)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037769</v>
       </c>
     </row>
@@ -13431,7 +13428,7 @@
         <v>30141505</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -13455,14 +13452,14 @@
         <v>55</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N25" s="11">
-        <f>1/COUNTIF($O:$O,O25)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037769</v>
       </c>
     </row>
@@ -13480,7 +13477,7 @@
         <v>30141505</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -13504,14 +13501,14 @@
         <v>55</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N26" s="11">
-        <f>1/COUNTIF($O:$O,O26)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037770</v>
       </c>
     </row>
@@ -13529,7 +13526,7 @@
         <v>30141505</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
@@ -13553,14 +13550,14 @@
         <v>55</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N27" s="11">
-        <f>1/COUNTIF($O:$O,O27)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037770</v>
       </c>
     </row>
@@ -13578,7 +13575,7 @@
         <v>30141505</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -13602,14 +13599,14 @@
         <v>55</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N28" s="11">
-        <f>1/COUNTIF($O:$O,O28)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037770</v>
       </c>
     </row>
@@ -13627,7 +13624,7 @@
         <v>30141505</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
@@ -13651,14 +13648,14 @@
         <v>55</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N29" s="11">
-        <f>1/COUNTIF($O:$O,O29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037783</v>
       </c>
     </row>
@@ -13676,7 +13673,7 @@
         <v>30141505</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>11</v>
@@ -13700,14 +13697,14 @@
         <v>55</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N30" s="11">
-        <f>1/COUNTIF($O:$O,O30)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037791</v>
       </c>
     </row>
@@ -13725,7 +13722,7 @@
         <v>30141505</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -13749,14 +13746,14 @@
         <v>55</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N31" s="11">
-        <f>1/COUNTIF($O:$O,O31)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037791</v>
       </c>
     </row>
@@ -13774,7 +13771,7 @@
         <v>30141505</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -13798,14 +13795,14 @@
         <v>55</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N32" s="11">
-        <f>1/COUNTIF($O:$O,O32)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037791</v>
       </c>
     </row>
@@ -13823,7 +13820,7 @@
         <v>30141505</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -13847,14 +13844,14 @@
         <v>55</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N33" s="11">
-        <f>1/COUNTIF($O:$O,O33)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037797</v>
       </c>
     </row>
@@ -13872,7 +13869,7 @@
         <v>30141505</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -13896,14 +13893,14 @@
         <v>55</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N34" s="11">
-        <f>1/COUNTIF($O:$O,O34)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037797</v>
       </c>
     </row>
@@ -13921,7 +13918,7 @@
         <v>30141505</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -13945,14 +13942,14 @@
         <v>55</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N35" s="11">
-        <f>1/COUNTIF($O:$O,O35)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510037797</v>
       </c>
     </row>
@@ -13994,14 +13991,14 @@
         <v>49</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N36" s="11">
-        <f>1/COUNTIF($O:$O,O36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910048278</v>
       </c>
     </row>
@@ -14046,11 +14043,11 @@
         <v>272</v>
       </c>
       <c r="N37" s="11">
-        <f>1/COUNTIF($O:$O,O37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6210054118</v>
       </c>
     </row>
@@ -14092,14 +14089,14 @@
         <v>57</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N38" s="11">
-        <f>1/COUNTIF($O:$O,O38)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5710057372</v>
       </c>
     </row>
@@ -14141,14 +14138,14 @@
         <v>57</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N39" s="11">
-        <f>1/COUNTIF($O:$O,O39)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5710057372</v>
       </c>
     </row>
@@ -14190,14 +14187,14 @@
         <v>49</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N40" s="11">
-        <f>1/COUNTIF($O:$O,O40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910064113</v>
       </c>
     </row>
@@ -14221,7 +14218,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>16</v>
@@ -14239,14 +14236,14 @@
         <v>49</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N41" s="11">
-        <f>1/COUNTIF($O:$O,O41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910067461</v>
       </c>
     </row>
@@ -14288,14 +14285,14 @@
         <v>57</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N42" s="11">
-        <f>1/COUNTIF($O:$O,O42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5710076992</v>
       </c>
     </row>
@@ -14337,14 +14334,14 @@
         <v>49</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N43" s="11">
-        <f>1/COUNTIF($O:$O,O43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910079574</v>
       </c>
     </row>
@@ -14368,7 +14365,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>16</v>
@@ -14386,14 +14383,14 @@
         <v>49</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N44" s="11">
-        <f>1/COUNTIF($O:$O,O44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910083704</v>
       </c>
     </row>
@@ -14435,14 +14432,14 @@
         <v>49</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N45" s="11">
-        <f>1/COUNTIF($O:$O,O45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910093591</v>
       </c>
     </row>
@@ -14484,14 +14481,14 @@
         <v>49</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N46" s="11">
-        <f>1/COUNTIF($O:$O,O46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910108388</v>
       </c>
     </row>
@@ -14515,7 +14512,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>16</v>
@@ -14533,14 +14530,14 @@
         <v>49</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N47" s="11">
-        <f>1/COUNTIF($O:$O,O47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910114052</v>
       </c>
     </row>
@@ -14558,7 +14555,7 @@
         <v>30141505</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>13</v>
@@ -14582,14 +14579,14 @@
         <v>55</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N48" s="11">
-        <f>1/COUNTIF($O:$O,O48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510118443</v>
       </c>
     </row>
@@ -14631,14 +14628,14 @@
         <v>51</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N49" s="11">
-        <f>1/COUNTIF($O:$O,O49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5110118722</v>
       </c>
     </row>
@@ -14662,7 +14659,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>16</v>
@@ -14680,14 +14677,14 @@
         <v>49</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N50" s="11">
-        <f>1/COUNTIF($O:$O,O50)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910122471</v>
       </c>
     </row>
@@ -14711,7 +14708,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>16</v>
@@ -14729,14 +14726,14 @@
         <v>49</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N51" s="11">
-        <f>1/COUNTIF($O:$O,O51)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910122471</v>
       </c>
     </row>
@@ -14760,7 +14757,7 @@
         <v>14</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>16</v>
@@ -14778,14 +14775,14 @@
         <v>49</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N52" s="11">
-        <f>1/COUNTIF($O:$O,O52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910130348</v>
       </c>
     </row>
@@ -14809,7 +14806,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>16</v>
@@ -14827,14 +14824,14 @@
         <v>49</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N53" s="11">
-        <f>1/COUNTIF($O:$O,O53)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910130373</v>
       </c>
     </row>
@@ -14858,7 +14855,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>16</v>
@@ -14876,14 +14873,14 @@
         <v>49</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N54" s="11">
-        <f>1/COUNTIF($O:$O,O54)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910130382</v>
       </c>
     </row>
@@ -14907,7 +14904,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>16</v>
@@ -14925,14 +14922,14 @@
         <v>49</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N55" s="11">
-        <f>1/COUNTIF($O:$O,O55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4910131451</v>
       </c>
     </row>
@@ -14956,7 +14953,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>16</v>
@@ -14974,14 +14971,14 @@
         <v>53</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N56" s="11">
-        <f>1/COUNTIF($O:$O,O56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5310132808</v>
       </c>
     </row>
@@ -15023,14 +15020,14 @@
         <v>57</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N57" s="11">
-        <f>1/COUNTIF($O:$O,O57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5710156810</v>
       </c>
     </row>
@@ -15048,7 +15045,7 @@
         <v>30141505</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>13</v>
@@ -15072,14 +15069,14 @@
         <v>55</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N58" s="11">
-        <f>1/COUNTIF($O:$O,O58)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510176593</v>
       </c>
     </row>
@@ -15097,7 +15094,7 @@
         <v>30141505</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>13</v>
@@ -15121,14 +15118,14 @@
         <v>55</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N59" s="11">
-        <f>1/COUNTIF($O:$O,O59)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510176593</v>
       </c>
     </row>
@@ -15146,7 +15143,7 @@
         <v>30141505</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>13</v>
@@ -15170,14 +15167,14 @@
         <v>55</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N60" s="11">
-        <f>1/COUNTIF($O:$O,O60)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5510176593</v>
       </c>
     </row>
@@ -15219,18 +15216,18 @@
         <v>57</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N61" s="11">
-        <f>1/COUNTIF($O:$O,O61)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5710177994</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>10181672</v>
       </c>
@@ -15250,7 +15247,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>16</v>
@@ -15268,14 +15265,14 @@
         <v>60</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N62" s="11">
-        <f>1/COUNTIF($O:$O,O62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6010181672</v>
       </c>
     </row>
@@ -15299,7 +15296,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>16</v>
@@ -15317,14 +15314,14 @@
         <v>50</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N63" s="11">
-        <f>1/COUNTIF($O:$O,O63)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5010216905</v>
       </c>
     </row>
@@ -15348,7 +15345,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>16</v>
@@ -15366,14 +15363,14 @@
         <v>50</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N64" s="11">
-        <f>1/COUNTIF($O:$O,O64)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5010216905</v>
       </c>
     </row>
@@ -15397,7 +15394,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>16</v>
@@ -15415,14 +15412,14 @@
         <v>50</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N65" s="11">
-        <f>1/COUNTIF($O:$O,O65)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5010216905</v>
       </c>
     </row>
@@ -15446,7 +15443,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>16</v>
@@ -15464,14 +15461,14 @@
         <v>50</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N66" s="11">
-        <f>1/COUNTIF($O:$O,O66)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5010216905</v>
       </c>
     </row>
@@ -15495,7 +15492,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>16</v>
@@ -15513,14 +15510,14 @@
         <v>50</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N67" s="11">
-        <f>1/COUNTIF($O:$O,O67)</f>
+        <f t="shared" ref="N67:N130" si="2">1/COUNTIF($O:$O,O67)</f>
         <v>0.2</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f t="shared" ref="O67:O130" si="1">L67&amp;A67</f>
+        <f t="shared" ref="O67:O130" si="3">L67&amp;A67</f>
         <v>5010216905</v>
       </c>
     </row>
@@ -15562,14 +15559,14 @@
         <v>51</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N68" s="11">
-        <f>1/COUNTIF($O:$O,O68)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110227128</v>
       </c>
     </row>
@@ -15611,14 +15608,14 @@
         <v>51</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N69" s="11">
-        <f>1/COUNTIF($O:$O,O69)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110227128</v>
       </c>
     </row>
@@ -15660,14 +15657,14 @@
         <v>53</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N70" s="11">
-        <f>1/COUNTIF($O:$O,O70)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5310232743</v>
       </c>
     </row>
@@ -15709,14 +15706,14 @@
         <v>53</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N71" s="11">
-        <f>1/COUNTIF($O:$O,O71)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5310232743</v>
       </c>
     </row>
@@ -15740,7 +15737,7 @@
         <v>99</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>16</v>
@@ -15758,14 +15755,14 @@
         <v>54</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N72" s="11">
-        <f>1/COUNTIF($O:$O,O72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5410240279</v>
       </c>
     </row>
@@ -15807,14 +15804,14 @@
         <v>59</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N73" s="11">
-        <f>1/COUNTIF($O:$O,O73)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5910262047</v>
       </c>
     </row>
@@ -15856,14 +15853,14 @@
         <v>59</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N74" s="11">
-        <f>1/COUNTIF($O:$O,O74)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5910262047</v>
       </c>
     </row>
@@ -15905,14 +15902,14 @@
         <v>59</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N75" s="11">
-        <f>1/COUNTIF($O:$O,O75)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5910262047</v>
       </c>
     </row>
@@ -15936,7 +15933,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>16</v>
@@ -15954,14 +15951,14 @@
         <v>63</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N76" s="11">
-        <f>1/COUNTIF($O:$O,O76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6310280383</v>
       </c>
     </row>
@@ -15979,13 +15976,13 @@
         <v>30141507</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>16</v>
@@ -16003,14 +16000,14 @@
         <v>55</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N77" s="11">
-        <f>1/COUNTIF($O:$O,O77)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510280847</v>
       </c>
     </row>
@@ -16028,13 +16025,13 @@
         <v>30141507</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>16</v>
@@ -16052,14 +16049,14 @@
         <v>55</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N78" s="11">
-        <f>1/COUNTIF($O:$O,O78)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510280847</v>
       </c>
     </row>
@@ -16101,14 +16098,14 @@
         <v>50</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N79" s="11">
-        <f>1/COUNTIF($O:$O,O79)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5010282488</v>
       </c>
     </row>
@@ -16150,14 +16147,14 @@
         <v>50</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N80" s="11">
-        <f>1/COUNTIF($O:$O,O80)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5010282488</v>
       </c>
     </row>
@@ -16199,14 +16196,14 @@
         <v>50</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N81" s="11">
-        <f>1/COUNTIF($O:$O,O81)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5010282488</v>
       </c>
     </row>
@@ -16248,14 +16245,14 @@
         <v>50</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N82" s="11">
-        <f>1/COUNTIF($O:$O,O82)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5010282488</v>
       </c>
     </row>
@@ -16297,14 +16294,14 @@
         <v>50</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N83" s="11">
-        <f>1/COUNTIF($O:$O,O83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5010282801</v>
       </c>
     </row>
@@ -16346,14 +16343,14 @@
         <v>56</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N84" s="11">
-        <f>1/COUNTIF($O:$O,O84)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5610306215</v>
       </c>
     </row>
@@ -16395,14 +16392,14 @@
         <v>56</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N85" s="11">
-        <f>1/COUNTIF($O:$O,O85)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5610306215</v>
       </c>
     </row>
@@ -16426,7 +16423,7 @@
         <v>15</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>16</v>
@@ -16444,14 +16441,14 @@
         <v>54</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N86" s="11">
-        <f>1/COUNTIF($O:$O,O86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5410324110</v>
       </c>
     </row>
@@ -16493,14 +16490,14 @@
         <v>55</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N87" s="11">
-        <f>1/COUNTIF($O:$O,O87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510331491</v>
       </c>
     </row>
@@ -16542,14 +16539,14 @@
         <v>55</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N88" s="11">
-        <f>1/COUNTIF($O:$O,O88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510335369</v>
       </c>
     </row>
@@ -16591,14 +16588,14 @@
         <v>51</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N89" s="11">
-        <f>1/COUNTIF($O:$O,O89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110337207</v>
       </c>
     </row>
@@ -16616,7 +16613,7 @@
         <v>31231302</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>13</v>
@@ -16640,14 +16637,14 @@
         <v>52</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N90" s="11">
-        <f>1/COUNTIF($O:$O,O90)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210344658</v>
       </c>
     </row>
@@ -16665,7 +16662,7 @@
         <v>31231302</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
@@ -16689,14 +16686,14 @@
         <v>52</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N91" s="11">
-        <f>1/COUNTIF($O:$O,O91)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210344658</v>
       </c>
     </row>
@@ -16738,14 +16735,14 @@
         <v>51</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N92" s="11">
-        <f>1/COUNTIF($O:$O,O92)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110355556</v>
       </c>
     </row>
@@ -16787,14 +16784,14 @@
         <v>51</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N93" s="11">
-        <f>1/COUNTIF($O:$O,O93)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110355556</v>
       </c>
     </row>
@@ -16836,14 +16833,14 @@
         <v>51</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N94" s="11">
-        <f>1/COUNTIF($O:$O,O94)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110355556</v>
       </c>
     </row>
@@ -16885,14 +16882,14 @@
         <v>51</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N95" s="11">
-        <f>1/COUNTIF($O:$O,O95)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110369047</v>
       </c>
     </row>
@@ -16934,14 +16931,14 @@
         <v>55</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N96" s="11">
-        <f>1/COUNTIF($O:$O,O96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510371784</v>
       </c>
     </row>
@@ -16983,14 +16980,14 @@
         <v>51</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N97" s="11">
-        <f>1/COUNTIF($O:$O,O97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110391724</v>
       </c>
     </row>
@@ -17032,14 +17029,14 @@
         <v>57</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N98" s="11">
-        <f>1/COUNTIF($O:$O,O98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5710484792</v>
       </c>
     </row>
@@ -17081,14 +17078,14 @@
         <v>58</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N99" s="11">
-        <f>1/COUNTIF($O:$O,O99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5810540451</v>
       </c>
     </row>
@@ -17130,14 +17127,14 @@
         <v>51</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N100" s="11">
-        <f>1/COUNTIF($O:$O,O100)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110550969</v>
       </c>
     </row>
@@ -17155,7 +17152,7 @@
         <v>41112217</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>13</v>
@@ -17179,14 +17176,14 @@
         <v>57</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N101" s="11">
-        <f>1/COUNTIF($O:$O,O101)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O101" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5710559026</v>
       </c>
     </row>
@@ -17204,7 +17201,7 @@
         <v>41112217</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>11</v>
@@ -17228,14 +17225,14 @@
         <v>57</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N102" s="11">
-        <f>1/COUNTIF($O:$O,O102)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5710559026</v>
       </c>
     </row>
@@ -17277,14 +17274,14 @@
         <v>63</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N103" s="11">
-        <f>1/COUNTIF($O:$O,O103)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6310562737</v>
       </c>
     </row>
@@ -17326,14 +17323,14 @@
         <v>52</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N104" s="11">
-        <f>1/COUNTIF($O:$O,O104)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210575526</v>
       </c>
     </row>
@@ -17375,14 +17372,14 @@
         <v>51</v>
       </c>
       <c r="M105" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N105" s="11">
-        <f>1/COUNTIF($O:$O,O105)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O105" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5110575874</v>
       </c>
     </row>
@@ -17406,7 +17403,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>16</v>
@@ -17424,14 +17421,14 @@
         <v>52</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N106" s="11">
-        <f>1/COUNTIF($O:$O,O106)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210579429</v>
       </c>
     </row>
@@ -17455,7 +17452,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>16</v>
@@ -17473,14 +17470,14 @@
         <v>52</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N107" s="11">
-        <f>1/COUNTIF($O:$O,O107)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210579664</v>
       </c>
     </row>
@@ -17504,7 +17501,7 @@
         <v>27</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>16</v>
@@ -17522,14 +17519,14 @@
         <v>63</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N108" s="11">
-        <f>1/COUNTIF($O:$O,O108)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O108" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6310588197</v>
       </c>
     </row>
@@ -17553,7 +17550,7 @@
         <v>11</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>16</v>
@@ -17571,14 +17568,14 @@
         <v>63</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N109" s="11">
-        <f>1/COUNTIF($O:$O,O109)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6310588197</v>
       </c>
     </row>
@@ -17596,7 +17593,7 @@
         <v>31371106</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>13</v>
@@ -17620,14 +17617,14 @@
         <v>57</v>
       </c>
       <c r="M110" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N110" s="11">
-        <f>1/COUNTIF($O:$O,O110)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5710595367</v>
       </c>
     </row>
@@ -17669,14 +17666,14 @@
         <v>52</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N111" s="11">
-        <f>1/COUNTIF($O:$O,O111)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210602917</v>
       </c>
     </row>
@@ -17718,14 +17715,14 @@
         <v>52</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N112" s="11">
-        <f>1/COUNTIF($O:$O,O112)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210602917</v>
       </c>
     </row>
@@ -17767,14 +17764,14 @@
         <v>52</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N113" s="11">
-        <f>1/COUNTIF($O:$O,O113)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5210614895</v>
       </c>
     </row>
@@ -17792,13 +17789,13 @@
         <v>30111503</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>30</v>
@@ -17816,14 +17813,14 @@
         <v>55</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N114" s="11">
-        <f>1/COUNTIF($O:$O,O114)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510615472</v>
       </c>
     </row>
@@ -17841,13 +17838,13 @@
         <v>30102201</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>16</v>
@@ -17865,14 +17862,14 @@
         <v>56</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N115" s="11">
-        <f>1/COUNTIF($O:$O,O115)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5610626756</v>
       </c>
     </row>
@@ -17914,14 +17911,14 @@
         <v>49</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N116" s="11">
-        <f>1/COUNTIF($O:$O,O116)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4910630386</v>
       </c>
     </row>
@@ -17939,7 +17936,7 @@
         <v>39121007</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -17963,14 +17960,14 @@
         <v>57</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N117" s="11">
-        <f>1/COUNTIF($O:$O,O117)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5710639321</v>
       </c>
     </row>
@@ -17988,7 +17985,7 @@
         <v>30141505</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -18012,14 +18009,14 @@
         <v>55</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N118" s="11">
-        <f>1/COUNTIF($O:$O,O118)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510649980</v>
       </c>
     </row>
@@ -18037,7 +18034,7 @@
         <v>30141505</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -18061,14 +18058,14 @@
         <v>55</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N119" s="11">
-        <f>1/COUNTIF($O:$O,O119)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510649980</v>
       </c>
     </row>
@@ -18086,7 +18083,7 @@
         <v>30141505</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>13</v>
@@ -18110,14 +18107,14 @@
         <v>55</v>
       </c>
       <c r="M120" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N120" s="11">
-        <f>1/COUNTIF($O:$O,O120)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510649980</v>
       </c>
     </row>
@@ -18135,7 +18132,7 @@
         <v>30141505</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>13</v>
@@ -18159,14 +18156,14 @@
         <v>55</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N121" s="11">
-        <f>1/COUNTIF($O:$O,O121)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510649980</v>
       </c>
     </row>
@@ -18208,14 +18205,14 @@
         <v>55</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N122" s="11">
-        <f>1/COUNTIF($O:$O,O122)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510651192</v>
       </c>
     </row>
@@ -18257,14 +18254,14 @@
         <v>55</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N123" s="11">
-        <f>1/COUNTIF($O:$O,O123)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510651192</v>
       </c>
     </row>
@@ -18306,14 +18303,14 @@
         <v>55</v>
       </c>
       <c r="M124" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N124" s="11">
-        <f>1/COUNTIF($O:$O,O124)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510651192</v>
       </c>
     </row>
@@ -18355,14 +18352,14 @@
         <v>55</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N125" s="11">
-        <f>1/COUNTIF($O:$O,O125)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5510652948</v>
       </c>
     </row>
@@ -18404,14 +18401,14 @@
         <v>53</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N126" s="11">
-        <f>1/COUNTIF($O:$O,O126)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5310659267</v>
       </c>
     </row>
@@ -18453,14 +18450,14 @@
         <v>53</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N127" s="11">
-        <f>1/COUNTIF($O:$O,O127)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5310659267</v>
       </c>
     </row>
@@ -18502,14 +18499,14 @@
         <v>59</v>
       </c>
       <c r="M128" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N128" s="11">
-        <f>1/COUNTIF($O:$O,O128)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5910669886</v>
       </c>
     </row>
@@ -18551,14 +18548,14 @@
         <v>49</v>
       </c>
       <c r="M129" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N129" s="11">
-        <f>1/COUNTIF($O:$O,O129)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4910673188</v>
       </c>
     </row>
@@ -18582,7 +18579,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>16</v>
@@ -18600,14 +18597,14 @@
         <v>59</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N130" s="11">
-        <f>1/COUNTIF($O:$O,O130)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5910674466</v>
       </c>
     </row>
@@ -18625,13 +18622,13 @@
         <v>39122301</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
@@ -18649,14 +18646,14 @@
         <v>59</v>
       </c>
       <c r="M131" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N131" s="11">
-        <f>1/COUNTIF($O:$O,O131)</f>
+        <f t="shared" ref="N131:N194" si="4">1/COUNTIF($O:$O,O131)</f>
         <v>1</v>
       </c>
       <c r="O131" s="1" t="str">
-        <f t="shared" ref="O131:O190" si="2">L131&amp;A131</f>
+        <f t="shared" ref="O131:O190" si="5">L131&amp;A131</f>
         <v>5910683747</v>
       </c>
     </row>
@@ -18698,14 +18695,14 @@
         <v>58</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N132" s="11">
-        <f>1/COUNTIF($O:$O,O132)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5810700079</v>
       </c>
     </row>
@@ -18729,7 +18726,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>16</v>
@@ -18747,14 +18744,14 @@
         <v>54</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N133" s="11">
-        <f>1/COUNTIF($O:$O,O133)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5410704858</v>
       </c>
     </row>
@@ -18778,7 +18775,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>16</v>
@@ -18796,14 +18793,14 @@
         <v>54</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N134" s="11">
-        <f>1/COUNTIF($O:$O,O134)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O134" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5410704919</v>
       </c>
     </row>
@@ -18845,14 +18842,14 @@
         <v>49</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N135" s="11">
-        <f>1/COUNTIF($O:$O,O135)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O135" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4910720131</v>
       </c>
     </row>
@@ -18894,14 +18891,14 @@
         <v>49</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N136" s="11">
-        <f>1/COUNTIF($O:$O,O136)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O136" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4910720131</v>
       </c>
     </row>
@@ -18943,14 +18940,14 @@
         <v>49</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N137" s="11">
-        <f>1/COUNTIF($O:$O,O137)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O137" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4910739403</v>
       </c>
     </row>
@@ -18968,13 +18965,13 @@
         <v>39131704</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>16</v>
@@ -18992,14 +18989,14 @@
         <v>59</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N138" s="11">
-        <f>1/COUNTIF($O:$O,O138)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O138" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5910810783</v>
       </c>
     </row>
@@ -19041,14 +19038,14 @@
         <v>52</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N139" s="11">
-        <f>1/COUNTIF($O:$O,O139)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O139" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5210826942</v>
       </c>
     </row>
@@ -19072,7 +19069,7 @@
         <v>13</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
@@ -19090,14 +19087,14 @@
         <v>54</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N140" s="11">
-        <f>1/COUNTIF($O:$O,O140)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O140" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5410856460</v>
       </c>
     </row>
@@ -19121,7 +19118,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>16</v>
@@ -19139,18 +19136,18 @@
         <v>53</v>
       </c>
       <c r="M141" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N141" s="11">
-        <f>1/COUNTIF($O:$O,O141)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O141" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5310864879</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>10901166</v>
       </c>
@@ -19188,14 +19185,14 @@
         <v>60</v>
       </c>
       <c r="M142" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N142" s="11">
-        <f>1/COUNTIF($O:$O,O142)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O142" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6010901166</v>
       </c>
     </row>
@@ -19219,7 +19216,7 @@
         <v>14</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
@@ -19237,14 +19234,14 @@
         <v>57</v>
       </c>
       <c r="M143" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N143" s="11">
-        <f>1/COUNTIF($O:$O,O143)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O143" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5710907664</v>
       </c>
     </row>
@@ -19268,7 +19265,7 @@
         <v>14</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>16</v>
@@ -19286,14 +19283,14 @@
         <v>57</v>
       </c>
       <c r="M144" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N144" s="11">
-        <f>1/COUNTIF($O:$O,O144)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O144" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5710907668</v>
       </c>
     </row>
@@ -19335,14 +19332,14 @@
         <v>51</v>
       </c>
       <c r="M145" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N145" s="11">
-        <f>1/COUNTIF($O:$O,O145)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O145" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5110912317</v>
       </c>
     </row>
@@ -19384,14 +19381,14 @@
         <v>57</v>
       </c>
       <c r="M146" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N146" s="11">
-        <f>1/COUNTIF($O:$O,O146)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O146" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5710935370</v>
       </c>
     </row>
@@ -19409,7 +19406,7 @@
         <v>40141624</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>14</v>
@@ -19433,14 +19430,14 @@
         <v>53</v>
       </c>
       <c r="M147" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N147" s="11">
-        <f>1/COUNTIF($O:$O,O147)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O147" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5310948518</v>
       </c>
     </row>
@@ -19458,7 +19455,7 @@
         <v>40141624</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>13</v>
@@ -19482,14 +19479,14 @@
         <v>53</v>
       </c>
       <c r="M148" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N148" s="11">
-        <f>1/COUNTIF($O:$O,O148)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O148" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5310948518</v>
       </c>
     </row>
@@ -19507,13 +19504,13 @@
         <v>30111503</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>30</v>
@@ -19531,14 +19528,14 @@
         <v>55</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N149" s="11">
-        <f>1/COUNTIF($O:$O,O149)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O149" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5510960787</v>
       </c>
     </row>
@@ -19580,14 +19577,14 @@
         <v>49</v>
       </c>
       <c r="M150" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N150" s="11">
-        <f>1/COUNTIF($O:$O,O150)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O150" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4910961679</v>
       </c>
     </row>
@@ -19629,14 +19626,14 @@
         <v>63</v>
       </c>
       <c r="M151" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N151" s="11">
-        <f>1/COUNTIF($O:$O,O151)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O151" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6310972823</v>
       </c>
     </row>
@@ -19678,14 +19675,14 @@
         <v>52</v>
       </c>
       <c r="M152" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N152" s="11">
-        <f>1/COUNTIF($O:$O,O152)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O152" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5210975172</v>
       </c>
     </row>
@@ -19727,14 +19724,14 @@
         <v>52</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N153" s="11">
-        <f>1/COUNTIF($O:$O,O153)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O153" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5210975172</v>
       </c>
     </row>
@@ -19776,14 +19773,14 @@
         <v>52</v>
       </c>
       <c r="M154" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N154" s="11">
-        <f>1/COUNTIF($O:$O,O154)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O154" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5210975172</v>
       </c>
     </row>
@@ -19825,14 +19822,14 @@
         <v>55</v>
       </c>
       <c r="M155" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N155" s="11">
-        <f>1/COUNTIF($O:$O,O155)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O155" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5510981323</v>
       </c>
     </row>
@@ -19874,14 +19871,14 @@
         <v>49</v>
       </c>
       <c r="M156" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N156" s="11">
-        <f>1/COUNTIF($O:$O,O156)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O156" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4911014366</v>
       </c>
     </row>
@@ -19923,14 +19920,14 @@
         <v>59</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N157" s="11">
-        <f>1/COUNTIF($O:$O,O157)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O157" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5911024029</v>
       </c>
     </row>
@@ -19954,7 +19951,7 @@
         <v>11</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
@@ -19972,14 +19969,14 @@
         <v>59</v>
       </c>
       <c r="M158" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N158" s="11">
-        <f>1/COUNTIF($O:$O,O158)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O158" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5911099872</v>
       </c>
     </row>
@@ -20021,14 +20018,14 @@
         <v>52</v>
       </c>
       <c r="M159" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N159" s="11">
-        <f>1/COUNTIF($O:$O,O159)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O159" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5211262155</v>
       </c>
     </row>
@@ -20070,14 +20067,14 @@
         <v>52</v>
       </c>
       <c r="M160" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N160" s="11">
-        <f>1/COUNTIF($O:$O,O160)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O160" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5211262155</v>
       </c>
     </row>
@@ -20119,14 +20116,14 @@
         <v>52</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N161" s="11">
-        <f>1/COUNTIF($O:$O,O161)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O161" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5211262159</v>
       </c>
     </row>
@@ -20168,14 +20165,14 @@
         <v>52</v>
       </c>
       <c r="M162" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N162" s="11">
-        <f>1/COUNTIF($O:$O,O162)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O162" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5211262159</v>
       </c>
     </row>
@@ -20217,14 +20214,14 @@
         <v>52</v>
       </c>
       <c r="M163" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N163" s="11">
-        <f>1/COUNTIF($O:$O,O163)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O163" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5211262174</v>
       </c>
     </row>
@@ -20248,7 +20245,7 @@
         <v>27</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>16</v>
@@ -20266,14 +20263,14 @@
         <v>58</v>
       </c>
       <c r="M164" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N164" s="11">
-        <f>1/COUNTIF($O:$O,O164)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O164" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5811291997</v>
       </c>
     </row>
@@ -20297,7 +20294,7 @@
         <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>16</v>
@@ -20315,14 +20312,14 @@
         <v>58</v>
       </c>
       <c r="M165" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N165" s="11">
-        <f>1/COUNTIF($O:$O,O165)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O165" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5811291997</v>
       </c>
     </row>
@@ -20364,14 +20361,14 @@
         <v>63</v>
       </c>
       <c r="M166" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N166" s="11">
-        <f>1/COUNTIF($O:$O,O166)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O166" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6311352775</v>
       </c>
     </row>
@@ -20413,14 +20410,14 @@
         <v>63</v>
       </c>
       <c r="M167" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N167" s="11">
-        <f>1/COUNTIF($O:$O,O167)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O167" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6311352858</v>
       </c>
     </row>
@@ -20462,14 +20459,14 @@
         <v>59</v>
       </c>
       <c r="M168" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N168" s="11">
-        <f>1/COUNTIF($O:$O,O168)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O168" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5911371778</v>
       </c>
     </row>
@@ -20511,14 +20508,14 @@
         <v>49</v>
       </c>
       <c r="M169" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N169" s="11">
-        <f>1/COUNTIF($O:$O,O169)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O169" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4911447989</v>
       </c>
     </row>
@@ -20542,7 +20539,7 @@
         <v>11</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>16</v>
@@ -20560,14 +20557,14 @@
         <v>57</v>
       </c>
       <c r="M170" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N170" s="11">
-        <f>1/COUNTIF($O:$O,O170)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O170" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5711493521</v>
       </c>
     </row>
@@ -20585,13 +20582,13 @@
         <v>30111503</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>30</v>
@@ -20609,14 +20606,14 @@
         <v>55</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N171" s="11">
-        <f>1/COUNTIF($O:$O,O171)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O171" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5511509033</v>
       </c>
     </row>
@@ -20640,7 +20637,7 @@
         <v>39</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>16</v>
@@ -20658,14 +20655,14 @@
         <v>54</v>
       </c>
       <c r="M172" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N172" s="11">
-        <f>1/COUNTIF($O:$O,O172)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O172" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5411515504</v>
       </c>
     </row>
@@ -20707,14 +20704,14 @@
         <v>52</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N173" s="11">
-        <f>1/COUNTIF($O:$O,O173)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O173" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5211540439</v>
       </c>
     </row>
@@ -20732,7 +20729,7 @@
         <v>30141505</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>13</v>
@@ -20756,14 +20753,14 @@
         <v>55</v>
       </c>
       <c r="M174" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N174" s="11">
-        <f>1/COUNTIF($O:$O,O174)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O174" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5511542777</v>
       </c>
     </row>
@@ -20781,7 +20778,7 @@
         <v>30141505</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>13</v>
@@ -20805,14 +20802,14 @@
         <v>55</v>
       </c>
       <c r="M175" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N175" s="11">
-        <f>1/COUNTIF($O:$O,O175)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O175" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5511542777</v>
       </c>
     </row>
@@ -20854,14 +20851,14 @@
         <v>51</v>
       </c>
       <c r="M176" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N176" s="11">
-        <f>1/COUNTIF($O:$O,O176)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O176" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5111621309</v>
       </c>
     </row>
@@ -20903,14 +20900,14 @@
         <v>49</v>
       </c>
       <c r="M177" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N177" s="11">
-        <f>1/COUNTIF($O:$O,O177)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O177" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4911646723</v>
       </c>
     </row>
@@ -20952,14 +20949,14 @@
         <v>51</v>
       </c>
       <c r="M178" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N178" s="11">
-        <f>1/COUNTIF($O:$O,O178)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O178" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5111653122</v>
       </c>
     </row>
@@ -20983,7 +20980,7 @@
         <v>13</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>16</v>
@@ -21004,11 +21001,11 @@
         <v>272</v>
       </c>
       <c r="N179" s="11">
-        <f>1/COUNTIF($O:$O,O179)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O179" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6211672395</v>
       </c>
     </row>
@@ -21050,14 +21047,14 @@
         <v>50</v>
       </c>
       <c r="M180" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N180" s="11">
-        <f>1/COUNTIF($O:$O,O180)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O180" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011719158</v>
       </c>
     </row>
@@ -21075,7 +21072,7 @@
         <v>31161507</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>13</v>
@@ -21099,14 +21096,14 @@
         <v>50</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N181" s="11">
-        <f>1/COUNTIF($O:$O,O181)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011743037</v>
       </c>
     </row>
@@ -21124,7 +21121,7 @@
         <v>31161507</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>13</v>
@@ -21148,14 +21145,14 @@
         <v>50</v>
       </c>
       <c r="M182" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N182" s="11">
-        <f>1/COUNTIF($O:$O,O182)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011743037</v>
       </c>
     </row>
@@ -21173,7 +21170,7 @@
         <v>31161507</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>11</v>
@@ -21197,14 +21194,14 @@
         <v>50</v>
       </c>
       <c r="M183" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N183" s="11">
-        <f>1/COUNTIF($O:$O,O183)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011743037</v>
       </c>
     </row>
@@ -21222,7 +21219,7 @@
         <v>31161507</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>13</v>
@@ -21246,14 +21243,14 @@
         <v>50</v>
       </c>
       <c r="M184" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N184" s="11">
-        <f>1/COUNTIF($O:$O,O184)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O184" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011743039</v>
       </c>
     </row>
@@ -21271,7 +21268,7 @@
         <v>31161507</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>11</v>
@@ -21295,14 +21292,14 @@
         <v>50</v>
       </c>
       <c r="M185" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N185" s="11">
-        <f>1/COUNTIF($O:$O,O185)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="O185" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011743039</v>
       </c>
     </row>
@@ -21320,7 +21317,7 @@
         <v>31161507</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>13</v>
@@ -21344,14 +21341,14 @@
         <v>50</v>
       </c>
       <c r="M186" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N186" s="11">
-        <f>1/COUNTIF($O:$O,O186)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O186" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011744643</v>
       </c>
     </row>
@@ -21369,7 +21366,7 @@
         <v>31161507</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>13</v>
@@ -21393,14 +21390,14 @@
         <v>50</v>
       </c>
       <c r="M187" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N187" s="11">
-        <f>1/COUNTIF($O:$O,O187)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O187" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011744643</v>
       </c>
     </row>
@@ -21418,7 +21415,7 @@
         <v>31161507</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>11</v>
@@ -21442,14 +21439,14 @@
         <v>50</v>
       </c>
       <c r="M188" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N188" s="11">
-        <f>1/COUNTIF($O:$O,O188)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O188" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011744643</v>
       </c>
     </row>
@@ -21473,7 +21470,7 @@
         <v>13</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>16</v>
@@ -21491,18 +21488,18 @@
         <v>51</v>
       </c>
       <c r="M189" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N189" s="11">
-        <f>1/COUNTIF($O:$O,O189)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O189" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5111774173</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>11775556</v>
       </c>
@@ -21515,14 +21512,12 @@
       <c r="D190" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E190" s="6" t="s">
-        <v>296</v>
-      </c>
+      <c r="E190" s="6"/>
       <c r="F190" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>90</v>
@@ -21540,14 +21535,14 @@
         <v>61</v>
       </c>
       <c r="M190" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N190" s="11">
-        <f>1/COUNTIF($O:$O,O190)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O190" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6111775556</v>
       </c>
     </row>
@@ -21571,7 +21566,7 @@
         <v>13</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>16</v>
@@ -21589,14 +21584,14 @@
         <v>58</v>
       </c>
       <c r="M191" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N191" s="11">
-        <f>1/COUNTIF($O:$O,O191)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O191" s="1" t="str">
-        <f t="shared" ref="O191:O204" si="3">L191&amp;A191</f>
+        <f t="shared" ref="O191:O204" si="6">L191&amp;A191</f>
         <v>5811806108</v>
       </c>
     </row>
@@ -21638,14 +21633,14 @@
         <v>51</v>
       </c>
       <c r="M192" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N192" s="11">
-        <f>1/COUNTIF($O:$O,O192)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O192" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5111818316</v>
       </c>
     </row>
@@ -21663,13 +21658,13 @@
         <v>43211710</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>16</v>
@@ -21687,14 +21682,14 @@
         <v>57</v>
       </c>
       <c r="M193" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N193" s="11">
-        <f>1/COUNTIF($O:$O,O193)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O193" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5711820022</v>
       </c>
     </row>
@@ -21718,7 +21713,7 @@
         <v>13</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>16</v>
@@ -21736,14 +21731,14 @@
         <v>53</v>
       </c>
       <c r="M194" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N194" s="11">
-        <f>1/COUNTIF($O:$O,O194)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O194" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5311846177</v>
       </c>
     </row>
@@ -21785,14 +21780,14 @@
         <v>49</v>
       </c>
       <c r="M195" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N195" s="11">
-        <f>1/COUNTIF($O:$O,O195)</f>
+        <f t="shared" ref="N195:N258" si="7">1/COUNTIF($O:$O,O195)</f>
         <v>1</v>
       </c>
       <c r="O195" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4911873932</v>
       </c>
     </row>
@@ -21810,7 +21805,7 @@
         <v>264</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>11</v>
@@ -21834,14 +21829,14 @@
         <v>57</v>
       </c>
       <c r="M196" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N196" s="11">
-        <f>1/COUNTIF($O:$O,O196)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O196" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5711896302</v>
       </c>
     </row>
@@ -21883,14 +21878,14 @@
         <v>58</v>
       </c>
       <c r="M197" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N197" s="11">
-        <f>1/COUNTIF($O:$O,O197)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O197" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5811910407</v>
       </c>
     </row>
@@ -21908,13 +21903,13 @@
         <v>86</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>16</v>
@@ -21932,14 +21927,14 @@
         <v>57</v>
       </c>
       <c r="M198" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N198" s="11">
-        <f>1/COUNTIF($O:$O,O198)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O198" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5711911003</v>
       </c>
     </row>
@@ -21957,13 +21952,13 @@
         <v>86</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>16</v>
@@ -21981,14 +21976,14 @@
         <v>57</v>
       </c>
       <c r="M199" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N199" s="11">
-        <f>1/COUNTIF($O:$O,O199)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O199" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5711911264</v>
       </c>
     </row>
@@ -22006,13 +22001,13 @@
         <v>86</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>16</v>
@@ -22030,14 +22025,14 @@
         <v>57</v>
       </c>
       <c r="M200" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N200" s="11">
-        <f>1/COUNTIF($O:$O,O200)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O200" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5711911265</v>
       </c>
     </row>
@@ -22079,14 +22074,14 @@
         <v>57</v>
       </c>
       <c r="M201" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N201" s="11">
-        <f>1/COUNTIF($O:$O,O201)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O201" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5711948157</v>
       </c>
     </row>
@@ -22128,14 +22123,14 @@
         <v>50</v>
       </c>
       <c r="M202" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N202" s="11">
-        <f>1/COUNTIF($O:$O,O202)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O202" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5011971967</v>
       </c>
     </row>
@@ -22159,7 +22154,7 @@
         <v>11</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>16</v>
@@ -22177,14 +22172,14 @@
         <v>59</v>
       </c>
       <c r="M203" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N203" s="11">
-        <f>1/COUNTIF($O:$O,O203)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O203" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5912120231</v>
       </c>
     </row>
@@ -22193,7 +22188,7 @@
         <v>10214998</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C204" s="31">
         <v>73079200</v>
@@ -22202,7 +22197,7 @@
         <v>21</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F204" s="31" t="s">
         <v>99</v>
@@ -22226,13 +22221,13 @@
         <v>53</v>
       </c>
       <c r="M204" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N204" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O204" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5310214998</v>
       </c>
     </row>
@@ -22243,7 +22238,7 @@
   <autoFilter ref="A2:O204" xr:uid="{E5670752-D3AF-4619-AF95-39ABE244E29C}">
     <filterColumn colId="11">
       <filters>
-        <filter val="60"/>
+        <filter val="61"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -22265,7 +22260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3:F17"/>
     </sheetView>
@@ -22327,7 +22322,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="30">
         <v>27</v>
@@ -22358,7 +22353,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F4" s="30">
         <v>20</v>
@@ -22389,7 +22384,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F5" s="30">
         <v>17</v>
@@ -22420,7 +22415,7 @@
         <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F6" s="30">
         <v>23</v>
@@ -22451,7 +22446,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="30">
         <v>13</v>
@@ -22482,7 +22477,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8" s="30">
         <v>7</v>
@@ -22513,7 +22508,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="30">
         <v>41</v>
@@ -22544,7 +22539,7 @@
         <v>56</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F10" s="30">
         <v>3</v>
@@ -22575,7 +22570,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="30">
         <v>20</v>
@@ -22606,7 +22601,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F12" s="30">
         <v>6</v>
@@ -22637,7 +22632,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F13" s="30">
         <v>13</v>
@@ -22668,7 +22663,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F14" s="30">
         <v>2</v>
@@ -22699,7 +22694,7 @@
         <v>61</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F15" s="30">
         <v>1</v>
@@ -22761,7 +22756,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="30">
         <v>7</v>
@@ -22849,13 +22844,13 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G4" t="s">
         <v>365</v>
-      </c>
-      <c r="F4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -22869,7 +22864,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="37">
         <v>25</v>
@@ -22892,7 +22887,7 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E6" s="37">
         <v>17.999999999999996</v>
@@ -22915,7 +22910,7 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" s="37">
         <v>14</v>
@@ -22938,7 +22933,7 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="37">
         <v>17.000000000000004</v>
@@ -22961,7 +22956,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="37">
         <v>12</v>
@@ -22984,7 +22979,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E10" s="37">
         <v>8</v>
@@ -23007,7 +23002,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E11" s="37">
         <v>21</v>
@@ -23030,7 +23025,7 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E12" s="37">
         <v>5</v>
@@ -23053,7 +23048,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E13" s="37">
         <v>20</v>
@@ -23076,7 +23071,7 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" s="37">
         <v>16</v>
@@ -23099,7 +23094,7 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E15" s="37">
         <v>11</v>
@@ -23122,7 +23117,7 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E16" s="37">
         <v>6</v>
@@ -23145,7 +23140,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E17" s="37">
         <v>3.0000000000000004</v>
@@ -23191,7 +23186,7 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" s="37">
         <v>8</v>
